--- a/DeployedContractData.xlsx
+++ b/DeployedContractData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t>[ { "constant": true, "inputs": [ { "name": "i", "type": "uint256" } ], "name": "getMyMonster", "outputs": [ { "name": "", "type": "string" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [], "name": "getBalance", "outputs": [ { "name": "", "type": "int256" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [], "name": "getRace", "outputs": [ { "name": "", "type": "string" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "n", "type": "int256" } ], "name": "buyEgg", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "myData", "outputs": [ { "name": "", "type": "string" }, { "name": "", "type": "bytes32" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [ { "name": "name", "type": "string" } ], "name": "monsterExist", "outputs": [ { "name": "", "type": "bool" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "name", "type": "string" }, { "name": "password", "type": "string" } ], "name": "register", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "loadStat", "outputs": [ { "name": "", "type": "string" }, { "name": "", "type": "int256[6]" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [], "name": "myEgg", "outputs": [ { "name": "", "type": "int256" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "name", "type": "string" } ], "name": "hatchMonster", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "class", "type": "string" }, { "name": "amount", "type": "int256" } ], "name": "useGem", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [ { "name": "name", "type": "string" } ], "name": "checkStat", "outputs": [ { "name": "", "type": "int256[6]" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [], "name": "userMValid", "outputs": [ { "name": "", "type": "bool" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "n", "type": "int256" } ], "name": "buyTicket", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "myBag", "outputs": [ { "name": "", "type": "int256[7]" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [], "name": "mySelectedMonster", "outputs": [ { "name": "", "type": "bytes32" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [], "name": "getMe", "outputs": [ { "name": "", "type": "address" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [ { "name": "name", "type": "string" } ], "name": "checkRace", "outputs": [ { "name": "", "type": "string" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [], "name": "myTicket", "outputs": [ { "name": "", "type": "int256" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "word", "type": "string" } ], "name": "mining", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "value", "type": "uint256" } ], "name": "collect", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [], "name": "topUp", "outputs": [], "payable": true, "stateMutability": "payable", "type": "function" }, { "constant": false, "inputs": [ { "name": "name", "type": "string" } ], "name": "loadMonster", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "inputs": [ { "name": "i", "type": "address", "index": 0, "typeShort": "address", "bits": "", "displayName": "i", "template": "elements_input_address", "value": "0x94f81A26cD7469d226bB8Ad4c6f4677D357A2850" }, { "name": "m", "type": "address", "index": 1, "typeShort": "address", "bits": "", "displayName": "m", "template": "elements_input_address", "value": "0xF4cd58b7b98F61A2880D61Ecb20a171ABa599e9b" } ], "payable": false, "stateMutability": "nonpayable", "type": "constructor" }, { "anonymous": false, "inputs": [ { "indexed": false, "name": "User", "type": "string" }, { "indexed": false, "name": "Class", "type": "string" }, { "indexed": false, "name": "Amount", "type": "int256" } ], "name": "Mined", "type": "event" }, { "anonymous": false, "inputs": [ { "indexed": false, "name": "User", "type": "string" }, { "indexed": false, "name": "Name", "type": "string" }, { "indexed": false, "name": "Race", "type": "string" }, { "indexed": false, "name": "Hp", "type": "int256" }, { "indexed": false, "name": "Mp", "type": "int256" }, { "indexed": false, "name": "Str", "type": "int256" }, { "indexed": false, "name": "Dex", "type": "int256" }, { "indexed": false, "name": "Int", "type": "int256" }, { "indexed": false, "name": "Luk", "type": "int256" } ], "name": "Hatch", "type": "event" } ]</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>0xF9b04877236473BC85E8826A827de1364183dA99</t>
+  </si>
+  <si>
+    <t>[ { "constant": true, "inputs": [], "name": "getCM", "outputs": [ { "name": "", "type": "bytes32" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "value", "type": "int256" } ], "name": "upgradeMp", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [], "name": "initRealm", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "value", "type": "int256" } ], "name": "upgradeStr", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "loadStat", "outputs": [ { "name": "", "type": "int256[6]" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "value", "type": "int256" } ], "name": "upgradeInt", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "value", "type": "int256" } ], "name": "upgradeDex", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [ { "name": "i", "type": "uint256" } ], "name": "getName", "outputs": [ { "name": "", "type": "bytes32" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [ { "name": "name", "type": "string" } ], "name": "getRace", "outputs": [ { "name": "", "type": "bytes32" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "name", "type": "string" } ], "name": "load", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [ { "name": "name", "type": "string" } ], "name": "getStat", "outputs": [ { "name": "", "type": "int256[6]" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "value", "type": "int256" } ], "name": "upgradeHp", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "name", "type": "string" } ], "name": "hatch", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "value", "type": "int256" } ], "name": "upgradeLuk", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [ { "name": "name", "type": "string" } ], "name": "getValid", "outputs": [ { "name": "", "type": "bool" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "inputs": [], "payable": false, "stateMutability": "nonpayable", "type": "constructor" } ]</t>
+  </si>
+  <si>
+    <t>0x63171A6f7c45740be6dA4432325164580801334D</t>
+  </si>
+  <si>
+    <t>[ { "constant": true, "inputs": [], "name": "getBag", "outputs": [ { "name": "", "type": "int256[7]", "value": [ "0", "0", "0", "0", "0", "0", "0" ] } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [], "name": "initBag", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "n", "type": "int256" } ], "name": "buyEgg", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "value", "type": "uint256" } ], "name": "topUp", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [], "name": "useTicket", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "n", "type": "int256" } ], "name": "buyTicket", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "getZil", "outputs": [ { "name": "", "type": "int256", "value": "0" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "class", "type": "bytes32" }, { "name": "amount", "type": "int256" } ], "name": "receiveItem", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [], "name": "useEgg", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "getEgg", "outputs": [ { "name": "", "type": "int256", "value": "0" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [], "name": "getTicket", "outputs": [ { "name": "", "type": "int256", "value": "0" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "class", "type": "bytes32" }, { "name": "amount", "type": "int256" } ], "name": "useGem", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "inputs": [], "payable": false, "stateMutability": "nonpayable", "type": "constructor" } ]</t>
+  </si>
+  <si>
+    <t>0x247aF26d323351DD09004145d7A903D4d41B1B9B</t>
+  </si>
+  <si>
+    <t>[ { "constant": false, "inputs": [ { "name": "n", "type": "int256" } ], "name": "buyEgg", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "myData", "outputs": [ { "name": "", "type": "string" }, { "name": "", "type": "address" }, { "name": "", "type": "bytes32" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "name", "type": "string" }, { "name": "password", "type": "string" } ], "name": "register", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "name", "type": "string" } ], "name": "hatchMonster", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [ { "name": "class", "type": "string" }, { "name": "amount", "type": "int256" } ], "name": "useGem", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [ { "name": "name", "type": "string" } ], "name": "checkStat", "outputs": [ { "name": "", "type": "string" }, { "name": "", "type": "int256[6]" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "n", "type": "int256" } ], "name": "buyTicket", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "myBag", "outputs": [ { "name": "", "type": "string" }, { "name": "", "type": "int256[7]" }, { "name": "", "type": "string" }, { "name": "", "type": "int256" }, { "name": "", "type": "string" }, { "name": "", "type": "int256" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": true, "inputs": [ { "name": "i", "type": "uint256" } ], "name": "getMonsteIndex", "outputs": [ { "name": "", "type": "string" }, { "name": "", "type": "string" }, { "name": "", "type": "int256[6]" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "word", "type": "string" } ], "name": "mining", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "myBalance", "outputs": [ { "name": "", "type": "int256" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "constant": false, "inputs": [ { "name": "value", "type": "uint256" } ], "name": "collect", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": false, "inputs": [], "name": "topUp", "outputs": [], "payable": true, "stateMutability": "payable", "type": "function" }, { "constant": false, "inputs": [ { "name": "name", "type": "string" } ], "name": "loadMonster", "outputs": [], "payable": false, "stateMutability": "nonpayable", "type": "function" }, { "constant": true, "inputs": [], "name": "SelectedMonster", "outputs": [ { "name": "", "type": "string" }, { "name": "", "type": "string" }, { "name": "", "type": "int256[6]" } ], "payable": false, "stateMutability": "view", "type": "function" }, { "inputs": [ { "name": "i", "type": "address", "index": 0, "typeShort": "address", "bits": "", "displayName": "i", "template": "elements_input_address", "value": "0x63171A6f7c45740be6dA4432325164580801334D" }, { "name": "m", "type": "address", "index": 1, "typeShort": "address", "bits": "", "displayName": "m", "template": "elements_input_address", "value": "0xF9b04877236473BC85E8826A827de1364183dA99" } ], "payable": false, "stateMutability": "nonpayable", "type": "constructor" }, { "anonymous": false, "inputs": [ { "indexed": false, "name": "User", "type": "string" }, { "indexed": false, "name": "Class", "type": "string" }, { "indexed": false, "name": "Amount", "type": "int256" } ], "name": "Mined", "type": "event" }, { "anonymous": false, "inputs": [ { "indexed": false, "name": "User", "type": "string" }, { "indexed": false, "name": "Name", "type": "string" }, { "indexed": false, "name": "Race", "type": "string" }, { "indexed": false, "name": "Hp", "type": "int256" }, { "indexed": false, "name": "Mp", "type": "int256" }, { "indexed": false, "name": "Str", "type": "int256" }, { "indexed": false, "name": "Dex", "type": "int256" }, { "indexed": false, "name": "Int", "type": "int256" }, { "indexed": false, "name": "Luk", "type": "int256" } ], "name": "Hatch", "type": "event" } ]</t>
   </si>
 </sst>
 </file>
@@ -390,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,6 +480,48 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
